--- a/Rugal.OpenReport.Test/Template/Templete_Export_Memo.xlsx
+++ b/Rugal.OpenReport.Test/Template/Templete_Export_Memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rugal\Development\Github\Rugal\Rugal.OpenReport\Rugal.OpenReport.Test\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F97D993-6B03-48FF-8B31-D6842F8B01D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA461273-1BCF-4669-A6DC-88E2013AA28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BEDEE76-8066-4B8C-987A-09CC169E0F35}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>專案名稱</t>
   </si>
@@ -83,11 +83,15 @@
     <t>描述</t>
   </si>
   <si>
-    <t>test1</t>
+    <t>test2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test2</t>
+    <t>$[for-row]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[for-col](Item.Signs, 2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90330619-C609-43AF-90AA-FC433294CF37}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -710,7 +714,7 @@
     </row>
     <row r="9" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -721,13 +725,15 @@
         <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>

--- a/Rugal.OpenReport.Test/Template/Templete_Export_Memo.xlsx
+++ b/Rugal.OpenReport.Test/Template/Templete_Export_Memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rugal\Development\Github\Rugal\Rugal.OpenReport\Rugal.OpenReport.Test\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA461273-1BCF-4669-A6DC-88E2013AA28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68812DA-6FF5-4D3D-9BDB-E3094E102A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7BEDEE76-8066-4B8C-987A-09CC169E0F35}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>專案名稱</t>
   </si>
@@ -83,15 +83,27 @@
     <t>描述</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>$[for-row](Groups, 9, 11); $[item](GroupName)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$[for-row]</t>
+    <t>$[item](Description)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$[for-col](Item.Signs, 2)</t>
+    <t>${ProjectName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[for-row](${value}, 11, 11); $[item](Name)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -205,18 +217,100 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -226,24 +320,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,9 +345,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -274,22 +390,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90330619-C609-43AF-90AA-FC433294CF37}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -640,25 +750,27 @@
     <col min="4" max="4" width="39.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="27.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -668,7 +780,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -678,7 +790,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -688,7 +800,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -698,54 +810,82 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" ht="219.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="10"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
